--- a/back-end/excelSheets/excelFormats/faculty_workshop_fdp.xlsx
+++ b/back-end/excelSheets/excelFormats/faculty_workshop_fdp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>slNo</t>
   </si>
@@ -187,6 +187,72 @@
   </si>
   <si>
     <t>inernational</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>14/05/2013</t>
+  </si>
+  <si>
+    <t>17/07/2013</t>
+  </si>
+  <si>
+    <t>19/09/2013</t>
+  </si>
+  <si>
+    <t>22/11/2013</t>
+  </si>
+  <si>
+    <t>25/01/2014</t>
+  </si>
+  <si>
+    <t>30/03/2014</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>13/02/2015</t>
+  </si>
+  <si>
+    <t>18/04/2015</t>
+  </si>
+  <si>
+    <t>21/06/2015</t>
+  </si>
+  <si>
+    <t>24/08/2015</t>
+  </si>
+  <si>
+    <t>27/10/2015</t>
+  </si>
+  <si>
+    <t>30/12/2015</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>14/11/2016</t>
+  </si>
+  <si>
+    <t>15/03/2017</t>
   </si>
 </sst>
 </file>
@@ -224,7 +290,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +588,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,7 +596,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -547,7 +613,7 @@
       <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E1" t="s">
@@ -573,8 +639,8 @@
       <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="1">
-        <v>41344</v>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -599,8 +665,8 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1">
-        <v>41408</v>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -625,8 +691,8 @@
       <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1">
-        <v>41472</v>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -651,8 +717,8 @@
       <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1">
-        <v>41536</v>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -677,8 +743,8 @@
       <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="1">
-        <v>41600</v>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -703,8 +769,8 @@
       <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="1">
-        <v>41664</v>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -729,8 +795,8 @@
       <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="1">
-        <v>41728</v>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -755,8 +821,8 @@
       <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1">
-        <v>41792</v>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -781,8 +847,8 @@
       <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1">
-        <v>41856</v>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -807,8 +873,8 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1">
-        <v>41920</v>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -833,8 +899,8 @@
       <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1">
-        <v>41984</v>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -859,8 +925,8 @@
       <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1">
-        <v>42048</v>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -885,8 +951,8 @@
       <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1">
-        <v>42112</v>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -911,8 +977,8 @@
       <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1">
-        <v>42176</v>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -937,8 +1003,8 @@
       <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="1">
-        <v>42240</v>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
@@ -963,8 +1029,8 @@
       <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="1">
-        <v>42304</v>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -989,8 +1055,8 @@
       <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="1">
-        <v>42368</v>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
@@ -1015,8 +1081,8 @@
       <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="1">
-        <v>42432</v>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
@@ -1041,8 +1107,8 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="1">
-        <v>42496</v>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
@@ -1067,8 +1133,8 @@
       <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="1">
-        <v>42560</v>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
@@ -1093,8 +1159,8 @@
       <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="1">
-        <v>42624</v>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -1119,8 +1185,8 @@
       <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="1">
-        <v>42688</v>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E23" t="s">
         <v>47</v>
